--- a/db/DB.xlsx
+++ b/db/DB.xlsx
@@ -8,22 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="challenges" sheetId="3" r:id="rId3"/>
+    <sheet name="DATA" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>category_ids</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -36,9 +35,6 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>enabled</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -130,6 +126,148 @@
   </si>
   <si>
     <t>role_id</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>ProductCategories</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>Making Common DB functions/procedures which can return dataset</t>
+  </si>
+  <si>
+    <t>GETALL
+GETBYID
+ADDNEW
+UPDATE
+DELETE</t>
+  </si>
+  <si>
+    <t>escape/unescape characters to store and retrive from DB</t>
+  </si>
+  <si>
+    <t>encode/decode parameters/ URLs</t>
+  </si>
+  <si>
+    <t>Storing and retrieving HTML from DB</t>
+  </si>
+  <si>
+    <t>authentication using local, HTTP &amp; social accounts.</t>
+  </si>
+  <si>
+    <t>Datepicker / Date Object in MySql</t>
+  </si>
+  <si>
+    <t>Pager /Pagination</t>
+  </si>
+  <si>
+    <t>upload multiple product images once user control. + storing URL in DB</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>in_stock</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>url1</t>
+  </si>
+  <si>
+    <t>url2</t>
+  </si>
+  <si>
+    <t>url3</t>
+  </si>
+  <si>
+    <t>url4</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>large</t>
   </si>
 </sst>
 </file>
@@ -200,14 +338,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,6 +575,367 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="142875" y="657225"/>
+          <a:ext cx="466725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="647700"/>
+          <a:ext cx="9525" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="3724275"/>
+          <a:ext cx="1114425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4124325" y="685800"/>
+          <a:ext cx="723900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="685800"/>
+          <a:ext cx="0" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="2943225"/>
+          <a:ext cx="1000125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="2952750"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285752</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4819650" y="3543300"/>
+          <a:ext cx="314327" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -740,18 +1244,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R15"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
@@ -763,73 +1267,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -837,57 +1341,55 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -895,36 +1397,34 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -932,34 +1432,34 @@
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -967,34 +1467,23 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1002,170 +1491,225 @@
         <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
+      <c r="N9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="N10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="N10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="N11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="N11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="R11" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>13</v>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="N13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="N2:R2"/>
-    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1175,21 +1719,873 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F9:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="62.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>I4&amp;T4</f>
+        <v>P1SKU</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>I5&amp;T5</f>
+        <v>P2SKU</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>I6&amp;T6</f>
+        <v>P3SKU</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>I7&amp;T7</f>
+        <v>P4SKU</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>I8&amp;T8</f>
+        <v>P5SKU</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>I9&amp;T9</f>
+        <v>P6SKU</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="N16" s="2">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:S2"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="H12:L12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
